--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31</t>
+    <t>2024-07-18</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>JP-ServiceRequest-Common　暫定プロファイル</t>
+    <t>JP-ServiceRequest-Common</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -269,10 +269,10 @@
 </t>
   </si>
   <si>
-    <t>「サービスの依頼」</t>
-  </si>
-  <si>
-    <t>診断調査、治療、手術などのサービスの依頼記録。</t>
+    <t>実施すべきサービス</t>
+  </si>
+  <si>
+    <t>診断調査、治療、または実行する操作などのサービス要求の記録。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -640,10 +640,10 @@
 </t>
   </si>
   <si>
-    <t>この注文に割り当てられた識別子。</t>
-  </si>
-  <si>
-    <t>「オーダラー、レシーバー、オーダーフルフィラーによってこの注文インスタンスに割り当てられた識別子。」</t>
+    <t>このリクエストに割り当てられた識別子</t>
+  </si>
+  <si>
+    <t>注文者、受取人、注文フルフィルラーによってこのリクエストに割り当てられた識別子</t>
   </si>
   <si>
     <t>identifier.type要素は、オーダラーが割り当てる識別子（HL7 v2では「Placer」として知られています）と、オーダーに応じて観察を行う製造業者（HL7 v2では「Filler」として知られている）との間の区別に使用されます。詳細なディスカッションと例については、以下のリソースノートセクションを参照してください。</t>
@@ -715,10 +715,10 @@
 </t>
   </si>
   <si>
-    <t>「何のリクエストを満たすのですか？」(Nan no rikuesuto wo mitasu no desu ka?)</t>
-  </si>
-  <si>
-    <t>このリクエストによって計画/提案/注文が履行されました。</t>
+    <t>リクエストが達成するもの</t>
+  </si>
+  <si>
+    <t>このリクエストによって実現される計画/提案/注文</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -741,10 +741,10 @@
 </t>
   </si>
   <si>
-    <t>「何のリクエストを代替しますか？」(nan no rikuesuto wo daitai shimasu ka?)</t>
-  </si>
-  <si>
-    <t>「そのリクエストは、参照された完了または終了したリクエストの代わりを占めます。」</t>
+    <t>リクエストが代替するもの</t>
+  </si>
+  <si>
+    <t>このエレメントで参照される完了または終了したリクエストをこのリクエストが代替する</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -854,7 +854,7 @@
 </t>
   </si>
   <si>
-    <t>サービスの分類 (Sābisu no bunrui)</t>
+    <t>サービスの分類</t>
   </si>
   <si>
     <t>「手術処置」など、検索、ソート、表示のためのサービスを分類するコード。</t>
@@ -943,7 +943,7 @@
 </t>
   </si>
   <si>
-    <t>「何が要求されているのですか」(Nani ga yōkyū sarete iru no desu ka)</t>
+    <t>要求されたものを示すコード</t>
   </si>
   <si>
     <t>「特定のサービス（すなわち手順、診断調査、または調査のパネル）を要求されたことを示すコード」</t>
@@ -980,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t>追加の注文情報</t>
+    <t>オーダの詳細情報</t>
   </si>
   <si>
     <t>「サービスの提供方法に関する追加の詳細と指示があります。例えば、尿カテーテルの注文には、内蔵型または外部型のカテーテルの注文詳細が含まれる場合があり、包帯の注文には、包帯の適用方法を指定する追加の指示が必要になる場合があります。」</t>
@@ -1009,7 +1009,7 @@
 RatioRange</t>
   </si>
   <si>
-    <t>「サービス料金」(saabisu ryokin)</t>
+    <t>サービスの費用</t>
   </si>
   <si>
     <t>要求されるサービスの量は、数量であることができます（例：$1,500の住宅改修）、比率であることができます（例：1か月あたり20回の半日訪問）、または範囲であることができます（1回あたり2.0〜1.8 Gy）。</t>
@@ -1028,7 +1028,7 @@
 </t>
   </si>
   <si>
-    <t>「サービスをオーダーした個人または法人」</t>
+    <t>サービスを実施する対象</t>
   </si>
   <si>
     <t>どの人または何にサービスを実施するか。通常は人の患者ですが、動物、人間または動物のグループ、透析機器など、場合によっては場所（環境スキャン用に）にも要求されることがあります。</t>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t>「要求が作成された出会い」(Yōkyū ga sakusei sareta deai)</t>
+    <t>リクエストが作成された状況</t>
   </si>
   <si>
     <t>この要求がされたヘルスケアの文脈に関する追加情報を提供する出会い。</t>
@@ -1092,7 +1092,7 @@
 PeriodTiming</t>
   </si>
   <si>
-    <t>「サービスが発生すべきタイミング」</t>
+    <t>サービスが実施される日時等</t>
   </si>
   <si>
     <t>リクエストされたサービスが行われる日時。</t>
@@ -1149,7 +1149,7 @@
 </t>
   </si>
   <si>
-    <t>「デートの申し込みをしました」と書かれた。</t>
+    <t>リクエストが発生した日</t>
   </si>
   <si>
     <t>「リクエストが実行可能な状態に移行したとき。」</t>
@@ -1181,7 +1181,7 @@
 </t>
   </si>
   <si>
-    <t>「誰／何がサービスを要求していますか？」(Dare/nani ga sābisu o yōkyū shiteimasu ka?)</t>
+    <t>サービスを要求した者</t>
   </si>
   <si>
     <t>「リクエストを開始し、その活性化の責任を持つ個人」</t>
@@ -1212,7 +1212,7 @@
 </t>
   </si>
   <si>
-    <t>演者の役割 (ensha no yakuwari)</t>
+    <t>実施者の役割（職種）</t>
   </si>
   <si>
     <t>希望するパフォーマーのタイプは、リクエストされたサービスを行うためです。</t>
@@ -1250,10 +1250,10 @@
 </t>
   </si>
   <si>
-    <t>「依頼されたパフォーマー」(Iraisareta pafōmā)</t>
-  </si>
-  <si>
-    <t>要求されたサービスを行うために希望の演者。例えば、外科医、皮膚病理学者、内視鏡医など。</t>
+    <t>依頼された実施者</t>
+  </si>
+  <si>
+    <t>要求されたサービスを行うために依頼された実施者。例えば、外科医、皮膚病理学者、内視鏡医など。</t>
   </si>
   <si>
     <t>複数のパフォーマーが存在する場合、順序に関係なく、好みのない代替のパフォーマーのリストとして解釈されます。好みの順序が必要な場合は、[request-performerOrder拡張機能](http://hl7.org/fhir/R4/extension-request-performerorder.html)を使用してください。パフォーマーのグループを表すには、CareTeamを使用します（例：実践者A *および*実践者B）。</t>
@@ -1271,7 +1271,7 @@
     <t>ServiceRequest.locationCode</t>
   </si>
   <si>
-    <t>「要求された場所」(Youkyuu sareta basho)</t>
+    <t>リクエストされた場所を示すコード</t>
   </si>
   <si>
     <t>手続きが実際に行われることが好ましい場所は、コード化されたテキスト形式または自由なテキスト形式で指定されます。例えば、自宅や介護デイケアセンターなどがあります。</t>
@@ -1293,6 +1293,9 @@
 </t>
   </si>
   <si>
+    <t>リクエストされた場所</t>
+  </si>
+  <si>
     <t>「実際に手順が行われることが好ましい場所に関する参照。例、自宅または介護デイケアセンター。」</t>
   </si>
   <si>
@@ -1361,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t>関連する保険カバレッジ (kanren suru hoken kabarēji)</t>
+    <t>関連する保険カバレッジ</t>
   </si>
   <si>
     <t>「要求されたサービスを提供するために必要な保険プラン、補償の拡張、前承認および/または前決定」</t>
@@ -1387,7 +1390,7 @@
 </t>
   </si>
   <si>
-    <t>追加の臨床情報 (Tsuika no rinshō jōhō)</t>
+    <t>追加の臨床情報</t>
   </si>
   <si>
     <t>患者または検体に関する追加の臨床情報が、サービスまたはその解釈に影響を与える可能性があります。この情報には、診断、臨床所見、その他の観察が含まれます。これらは一般的に「注文エントリー時の質問（AOE）で問い合わせること」と呼ばれます。これには、生産者（フィラー）が明示的に要求し、注文を完了するために必要な文脈または補助情報を提供する観察が含まれます。例えば、血液ガス測定のための吸入酸素量を報告することが挙げられます。</t>
@@ -1412,10 +1415,10 @@
 </t>
   </si>
   <si>
-    <t>手順のサンプル (Tetsuduki no sampuru)</t>
-  </si>
-  <si>
-    <t>実験室の手順で使用される1つ以上の標本。</t>
+    <t>プロシージャーのサンプル</t>
+  </si>
+  <si>
+    <t>検査手順で使用される 1 つ以上の標本</t>
   </si>
   <si>
     <t>多くの診断手順ではサンプルが必要ですが、要求自体は実際にはサンプルに関するものではありません。この要素は、既存のサンプルに対して診断が要求され、要求が適用されるサンプルを指す場合に使用されます。逆に、要求が先に未知のサンプルで入力された場合、[試料](specimen.html)リソースはServiceRequestを指します。</t>
@@ -1434,7 +1437,7 @@
 </t>
   </si>
   <si>
-    <t>「身体の位置」</t>
+    <t>体の部位</t>
   </si>
   <si>
     <t>手順を実行する解剖学的位置。これが目標箇所です。</t>
@@ -1499,10 +1502,10 @@
 </t>
   </si>
   <si>
-    <t>「出所の確認をお願いします。」</t>
-  </si>
-  <si>
-    <t>「依頼の歴史における重要な出来事」</t>
+    <t>リクエストの履歴</t>
+  </si>
+  <si>
+    <t>要求の履歴の主要なイベント</t>
   </si>
   <si>
     <t>この要求のすべてのバージョンについての出所が含まれるわけではない可能性があります。 "関連性"があると判断されたものだけを含みます。@@ -6708,10 +6711,10 @@
         <v>408</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6783,7 +6786,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>391</v>
@@ -6794,10 +6797,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6823,13 +6826,13 @@
         <v>268</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6858,10 +6861,10 @@
         <v>156</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6879,7 +6882,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6894,16 +6897,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6911,10 +6914,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6937,16 +6940,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6996,7 +6999,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7011,16 +7014,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7028,10 +7031,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7054,13 +7057,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7111,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7126,13 +7129,13 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7143,14 +7146,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7169,16 +7172,16 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7228,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7243,13 +7246,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7260,10 +7263,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7286,16 +7289,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7345,7 +7348,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7363,10 +7366,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7377,14 +7380,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7406,16 +7409,16 @@
         <v>268</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7443,10 +7446,10 @@
         <v>156</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7464,7 +7467,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7482,24 +7485,24 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7522,13 +7525,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7579,7 +7582,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7594,27 +7597,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7640,10 +7643,10 @@
         <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7694,7 +7697,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7715,7 +7718,7 @@
         <v>316</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7726,10 +7729,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7752,16 +7755,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7811,7 +7814,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7826,13 +7829,13 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -392,7 +392,7 @@
     <t>ServiceRequest.meta.versionId</t>
   </si>
   <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+    <t>バージョン固有の識別子</t>
   </si>
   <si>
     <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
@@ -430,7 +430,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>リソースの由来を特定する</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -536,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>リソースコンテンツの言語</t>
   </si>
   <si>
     <t>「リソースが書かれている基本言語。」</t>
@@ -548,7 +548,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>人間の言語</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -594,7 +594,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>含まれるもの。インラインリソース</t>
   </si>
   <si>
     <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
@@ -621,13 +621,10 @@
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>無視してはいけない識別子</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -1859,7 +1856,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="123.14453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3887,7 +3884,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3914,12 +3911,8 @@
       <c r="M18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3988,7 +3981,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3999,10 +3992,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4025,16 +4018,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4084,7 +4077,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4099,27 +4092,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4142,16 +4135,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4201,7 +4194,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4216,13 +4209,13 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4233,10 +4226,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4262,13 +4255,13 @@
         <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4318,7 +4311,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4333,13 +4326,13 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4350,14 +4343,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4376,13 +4369,13 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4433,7 +4426,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4448,13 +4441,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4465,14 +4458,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4491,13 +4484,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4548,7 +4541,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4563,13 +4556,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4580,14 +4573,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4606,19 +4599,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4667,7 +4660,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4682,13 +4675,13 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4699,10 +4692,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4728,13 +4721,13 @@
         <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4760,14 +4753,14 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4784,7 +4777,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>90</v>
@@ -4799,27 +4792,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4845,13 +4838,13 @@
         <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4877,14 +4870,14 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4901,7 +4894,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -4916,16 +4909,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4933,10 +4926,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4959,19 +4952,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4999,11 +4992,11 @@
         <v>156</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5020,7 +5013,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5038,13 +5031,13 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5052,10 +5045,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5081,10 +5074,10 @@
         <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5092,35 +5085,35 @@
         <v>81</v>
       </c>
       <c r="Q28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5137,7 +5130,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5152,16 +5145,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5169,10 +5162,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5195,26 +5188,26 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="O29" t="s" s="2">
+      <c r="P29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5273,13 +5266,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5290,14 +5283,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5316,16 +5309,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5354,11 +5347,11 @@
         <v>156</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5375,7 +5368,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5390,31 +5383,31 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5433,16 +5426,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5471,11 +5464,11 @@
         <v>156</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5492,7 +5485,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5501,7 +5494,7 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
@@ -5510,24 +5503,24 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5550,17 +5543,17 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5609,7 +5602,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5627,10 +5620,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5641,10 +5634,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5667,13 +5660,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5724,7 +5717,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
@@ -5739,31 +5732,31 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5782,13 +5775,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5839,7 +5832,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5854,31 +5847,31 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5897,13 +5890,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5954,7 +5947,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5969,27 +5962,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6012,13 +6005,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6048,11 +6041,11 @@
         <v>156</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6069,7 +6062,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6090,25 +6083,25 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6127,13 +6120,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6184,7 +6177,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6199,31 +6192,31 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6242,16 +6235,16 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6301,7 +6294,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6316,31 +6309,31 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6359,16 +6352,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6397,11 +6390,11 @@
         <v>156</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6418,7 +6411,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6433,16 +6426,16 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6450,14 +6443,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6476,16 +6469,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6535,7 +6528,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6550,16 +6543,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AN40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6567,10 +6560,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6593,13 +6586,13 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6629,11 +6622,11 @@
         <v>156</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6650,7 +6643,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6671,10 +6664,10 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6682,10 +6675,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6708,13 +6701,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6765,7 +6758,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6786,10 +6779,10 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6797,10 +6790,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6823,16 +6816,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6861,11 +6854,11 @@
         <v>156</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6882,7 +6875,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6897,16 +6890,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6914,10 +6907,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6940,16 +6933,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6999,7 +6992,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7014,16 +7007,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AN44" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7031,10 +7024,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7057,13 +7050,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7114,7 +7107,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7129,13 +7122,13 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7146,14 +7139,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7172,16 +7165,16 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7231,7 +7224,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7246,13 +7239,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7263,10 +7256,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7289,16 +7282,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7348,7 +7341,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7366,10 +7359,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7380,14 +7373,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7406,19 +7399,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7446,11 +7439,11 @@
         <v>156</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7467,7 +7460,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7485,24 +7478,24 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7525,13 +7518,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7582,7 +7575,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7597,27 +7590,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7643,10 +7636,10 @@
         <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7697,7 +7690,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7715,10 +7708,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7729,10 +7722,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7755,16 +7748,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7814,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7829,13 +7822,13 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
@@ -863,7 +863,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>要求されたサービスの分類。 (Yōkyū sa reta sābisu no bunrui.)</t>
+    <t>要求されたサービスの分類</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>JP-ServiceRequest-Common</t>
+    <t>本プロファイル説明は、患者に対し立案・実施されるリクエストの記録で、処置や診断、もしくは他のサービスのために用いられるFHIR ServiceRequestリソースを使用するにあたっての、最低限の制約を記述したものである。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-servicerequest-common.xlsx
@@ -555,7 +555,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|http://jpfhir.jp/fhir/core/StructureDefinition/JP_ServiceRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|http://jpfhir.jp/fhir/core/StructureDefinition/JP_ServiceRequest_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_ServiceRequest)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_ServiceRequest_Common)
 </t>
   </si>
   <si>
